--- a/artefacts/5_RMPP_11_PersonalDevelopmentPlan.xlsx
+++ b/artefacts/5_RMPP_11_PersonalDevelopmentPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mireality-my.sharepoint.com/personal/maria_mireality_co_uk/Documents/Documents/data/Education/Masters_MScAI/_Modules/FORALLCOURSES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{1EEA299B-811F-4E93-8E9C-8C78199D2E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="14_{1EEA299B-811F-4E93-8E9C-8C78199D2E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{632C74FA-77E4-4ED5-A0CE-D370C3FD21E3}"/>
   <bookViews>
-    <workbookView xWindow="-1410" yWindow="-23830" windowWidth="28530" windowHeight="27510" xr2:uid="{8B608F8C-5C46-4F16-8BA9-6BBFDDF5409D}"/>
+    <workbookView xWindow="3940" yWindow="-24330" windowWidth="22770" windowHeight="23180" xr2:uid="{8B608F8C-5C46-4F16-8BA9-6BBFDDF5409D}"/>
   </bookViews>
   <sheets>
     <sheet name="PDP" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="176">
   <si>
     <t>Where do I want to be by the end of this period/year?</t>
   </si>
@@ -293,11 +293,6 @@
 NLP</t>
   </si>
   <si>
-    <t>* Machine Learning module
-* Google AI learning paths
-* (Possibly AWS certification)</t>
-  </si>
-  <si>
     <t>* Google Learning Path Completions</t>
   </si>
   <si>
@@ -327,11 +322,6 @@
     <t xml:space="preserve">* Do UoEO modules.
 * Do Google Responsible AI
 </t>
-  </si>
-  <si>
-    <t>* UAI (2023): Created application of AI to ethical banking scenario (distinction). 
-* IA (2023-2024): Covered in seminar 
-* Completed Google Responsible AI path</t>
   </si>
   <si>
     <t xml:space="preserve">* Independent research
@@ -395,15 +385,6 @@
     <t>LEARNING BEHAVIOURS</t>
   </si>
   <si>
-    <t>Aim small and iterate agilely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dig. Understand. Create. </t>
-  </si>
-  <si>
-    <t>Encourage engagement excitement</t>
-  </si>
-  <si>
     <t>* Successful timely delivery</t>
   </si>
   <si>
@@ -464,16 +445,6 @@
   <si>
     <t>* Increase students attending seminars
 * Student rep actions taken</t>
-  </si>
-  <si>
-    <t>Innovate and solve (Builds on Dig. Understand. Create. Also builds on Aim small and iterate agilely.)</t>
-  </si>
-  <si>
-    <t>Seek feedback and self-learn 
-(Builds on aim small and iterate agilely as well as Dig. Understand. Create.)</t>
-  </si>
-  <si>
-    <t>Build community and seek improvement (Builds on encourage engagement excitement).</t>
   </si>
   <si>
     <t>* Ask for specific constructive feedback
@@ -500,14 +471,6 @@
     <t>* IA (2023-24): Team development and independent web scraper AROS. (Distinctions).</t>
   </si>
   <si>
-    <t>GitHub, MS Visual Studio Code, Rstudio</t>
-  </si>
-  <si>
-    <t>* UAI (2023): Created e-Portfolio in GitHub and Notepad++, then MS Visual Studio Code and GitHub Desktop (Distinctions).
-* IA (2023-24): e-Portfolio, team development and independent project AROS. (Distinctions).
-* NA (2024): e-Portfolio, data activities, statistical analysis presentation. (TBC).</t>
-  </si>
-  <si>
     <t xml:space="preserve">R </t>
   </si>
   <si>
@@ -529,6 +492,214 @@
   <si>
     <t>* When I become one of the go-to panellists, then one of the go-to speakers. 
 * May 2024: I have already become one of the go-to panellists. I'm starting to become a go-to speaker.</t>
+  </si>
+  <si>
+    <t>* Improved appearance of knowledge sharing, improvement and support.</t>
+  </si>
+  <si>
+    <t>* End of MSc AI
+* End of 2025
+* Ongoing.</t>
+  </si>
+  <si>
+    <t>* Break tasks down. 
+* Chose the simplest goal first. 
+* Read and research.
+* Ask questions</t>
+  </si>
+  <si>
+    <t>* Self
+* Access to learning materials. 
+* Tutor clarity.</t>
+  </si>
+  <si>
+    <t>* Successful timely delivery
+* Distinction
+* Growth from learning and feedback. 
+* Feeling well-prepared to speak.</t>
+  </si>
+  <si>
+    <t>* End of MSc AI
+* Ongoing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Make time to exercise daily. 
+* Make time for sleep.
+* Take breaks.
+</t>
+  </si>
+  <si>
+    <t>* Self
+* Other students
+* Student rep group</t>
+  </si>
+  <si>
+    <t>* Review weekly
+* End of MSc AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Increase camaraderie, sense of community, peer growth and emotional support. 
+</t>
+  </si>
+  <si>
+    <t>GitHub, MS Visual Studio Code, Rstudio, Excel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* UAI (2023): Created e-Portfolio in GitHub and Notepad++, then MS Visual Studio Code and GitHub Desktop (Distinctions).
+* IA (2023-24): e-Portfolio, team development and independent project AROS. (Distinctions).
+* NA (2024): e-Portfolio, data activities, statistical analysis presentation. (TBC).
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RMPP (2024)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: e-Portfolio, statistical worksheets.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">* Do UoEO modules.
+* Do Google learning paths.
+* Do Deep Learning paths
+</t>
+  </si>
+  <si>
+    <t>* Machine Learning module
+* Google AI learning paths
+* Deeplearning.ai
+* (Possibly AWS certification)</t>
+  </si>
+  <si>
+    <t>* Passing with distinction
+* Passing Google training.
+* Passing deeplearning.ai
+* (Passing certifications.)</t>
+  </si>
+  <si>
+    <t>* End of MSc AI
+* End of 2024
+* End of 2025 
+* (Certifications later.)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* UAI (2023): Created application of AI to ethical banking scenario (distinction). 
+* IA (2023-2024): Covered in seminar 
+* Completed Google Responsible AI path
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RMPP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (2024): Collaboative Learning Discussions (1,2,3,7,8,9)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RMPP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Research Proposal (10)
+* Google Learning Path Completions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">* RMPP: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Literature Review (7), Research Proposal (10)
+* Google Learning Path Completions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>* UAI (2023) Ethical banking applications using ML all related to media applications. (Distinction)
+* UAI (2023) WEKA Kaggle dataset analysis with ML focused on churn, also prevalent in media.  (Distinction)
+* IA (2023-2024) Web scraping, AROS  (Distinction)
+* KRR (2023-2024) LoCLOnt Library ontology using age-appropriate genres and new releases. (Distinction)
+* NA (2024) Statistical Analysis Presentation - considering how might apply to media survey data. (Distinction)
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RMPP (2024): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Literature Review (7) - recommendations in video on demand (distinction). Research Proposal Presentation (10) - LLMs in media and entertainment (TBC)
+</t>
+    </r>
   </si>
   <si>
     <t>2023
@@ -546,134 +717,435 @@
 * Connected TV World Summit: AI in Distribution
 * Digital Entertainment Group Roadshow: AI Panel
 * CTAM: Generative AI Panel
-* More already scheduled...</t>
-  </si>
-  <si>
-    <t>* UAI (2023) Ethical banking applications using ML all related to media applications. (Distinction)
+* CTAM: AI in Media presentation
+* SportsPro AI (September)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* UAI (2023) Ethical banking applications using ML all related to media applications. (Distinction)
 * UAI (2023) WEKA Kaggle dataset analysis with ML focused on churn, also prevalent in media. (Distinction)
 * IA (2023-2024) Web scraping, AROS (Distinction)
 * KRR (2023-2024) LoCLOnt Library ontology using age-appropriate genres and new releases. (Distinction)
-* NA (2024) Statistical Analysis Presentation (TBC)</t>
-  </si>
-  <si>
-    <t>* Improved appearance of knowledge sharing, improvement and support.</t>
-  </si>
-  <si>
-    <t>* Creation of WhatsApp group for students for each course. 
-* Student rep feedback to UoEO Computing leadership.
-* NA (2024) WhatsApp group with 11 members has provided a real sense of community, camaraderie, peer growth and mutual support.</t>
-  </si>
-  <si>
-    <t>* UAI (2023) Ethical banking applications using ML all related to media applications. (Distinction)
+* NA (2024) Statistical Analysis Presentation (Distinction)
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RMPP (2024)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Literature Review (7) (Distinction) and Research Proposal (10) (TBC)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* UAI (2023) Ethical banking applications using ML all related to media applications. (Distinction)
 * UAI (2023) WEKA Kaggle dataset analysis with ML focused on churn, also prevalent in media. (Distinction)
 * IA (2023-2024) Web scraping, AROS (Distinction)
 * KRR (2023-2024) Library ontology using age-appropriate genres and new releases. (Distinction)
-* NA (2024) Exam (93%), Statistical Analysis Presentation (TBC)</t>
-  </si>
-  <si>
-    <t>* KRR (2023-2024) LoCLOnt Library ontology using age-appropriate genres and new releases. (Distinction)
-* NA (2024) Exam (93%), Statistical Analysis Presentation (TBC)</t>
-  </si>
-  <si>
-    <t>* Requesting assignment feedback.
+* NA (2024) Exam (93%), Statistical Analysis Presentation (Distinction)
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RMPP (2024)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Literature Review (7) (Distinction) and Research Proposal (10) (TBC)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Creation of WhatsApp group for students for each course. 
+* Student rep feedback to UoEO Computing leadership.
+* NA (2024) WhatsApp group with 11 members has provided a real sense of community, camaraderie, peer growth and mutual support.
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RMPP (2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) WhatsApp group has peers supporting each other.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* KRR (2023-2024) LoCLOnt Library ontology using age-appropriate genres and new releases. (Distinction)
+* NA (2024) Exam (93%), Statistical Analysis Presentation (TBC)
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RMPP (2024)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Literature Review (7) (Distinction) and Research Proposal (10) (TBC)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Requesting assignment feedback.
 * Completed ungraded / optional learning activities (8 in KRR, 2 in IA)
 * Completed ungraded collaborative discussions (2 in KRR, 2 in IA)
 * Completed several Google AI learning paths
 * 13 completed speaking events on AI
-* NA (2024) Regular checks from tutor during seminars. Asked questions.</t>
-  </si>
-  <si>
-    <t>* End of MSc AI
-* End of 2025
-* Ongoing.</t>
-  </si>
-  <si>
-    <t>* Creation of WhatsApp group for students for each course. 
+* NA (2024) Regular checks from tutor during seminars. Asked questions.
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RMPP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2024): Asked questions during seminars and during module.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Creation of WhatsApp group for students for each course. 
 * Provided technical issue workarounds to students. 
 * Answered questions where possible.
 * Student rep feedback to UoEO Computing leadership.
 * Completed ungraded collaborative discussions (2 in KRR, 2 in IA)
-* NA (2024) WhatsApp group with 11 members has provided a real sense of community, camaraderie, peer growth and mutual support.</t>
-  </si>
-  <si>
-    <t>Individual incremental growth built on digging deep.</t>
-  </si>
-  <si>
-    <t>Community building and knowledge sharing for growth and support.</t>
+* NA (2024) WhatsApp group with 11 members has provided a real sense of community, camaraderie, peer growth and mutual support.
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RMPP (2024) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WhatsApp group has peers supporting each other.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* UAI (2023) Ethical banking applications using ML all related to media applications. (Distinction)
+* UAI (2023) WEKA Kaggle dataset analysis with ML focused on churn, also prevalent in media. (Distinction)
+* IA (2023-2024) Web scraping, AROS (Distinction)
+* KRR (2023-2024) LoCLOnt Library ontology using age-appropriate genres and new releases. (Distinction)
+* NA (2024) Statistical Analysis Presentation (TBC)
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RMPP (2024)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Literature Review (7) (Distinction) and Research Proposal (10) (TBC) plus Reflections (1, 5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Creation of WhatsApp group for students for each course. 
+* Answered questions where possible.
+* Student rep feedback to UoEO Computing leadership.
+* NA (2024) WhatsApp group with 11 members has provided a real sense of community, camaraderie, peer growth and mutual support.
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RMPP (2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) WhatsApp group has peers supporting each other. Collaborative Discussions (1,2,3, 7,8,9)</t>
+    </r>
+  </si>
+  <si>
+    <t>* Self
+* Yoga
+* Walking
+* Sleeping
+* Flight to USA</t>
+  </si>
+  <si>
+    <t>* Health improves.
+* Back pain manageable.
+* Not always exhausted.
+* See a friend once a month.
+* See family  once a year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Gradual physical recovery.
+* Yoga or walking 2-3 times a week
+* Lapse:  Studying to 3am again.
+* Saw one friend in July once.
+</t>
+  </si>
+  <si>
+    <t>Aim small and iterate agilely
+(UAI and IA)</t>
+  </si>
+  <si>
+    <t>Dig. Understand. Create. 
+(UAI and IA)</t>
+  </si>
+  <si>
+    <t>Encourage engagement excitement
+(UAI and IA)</t>
+  </si>
+  <si>
+    <t>Innovate and solve (Builds on Dig. Understand. Create. Also builds on Aim small and iterate agilely.)
+(KRR)</t>
+  </si>
+  <si>
+    <t>Seek feedback and self-learn 
+(Builds on aim small and iterate agilely as well as Dig. Understand. Create.)
+(KRR)</t>
+  </si>
+  <si>
+    <t>Build community and seek improvement (Builds on encourage engagement excitement).
+(KRR)</t>
+  </si>
+  <si>
+    <r>
+      <t>Grow by digging, building and applying to industry.
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RMPP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>* Break tasks down. 
 * Chose the simplest goal first. 
 * Read and research.
-* Ask questions</t>
-  </si>
-  <si>
-    <t>* Self
-* Access to learning materials. 
-* Tutor clarity.</t>
+* Ask questions
+* Apply to media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Self
+* Clear modules 
+* Access to learning materials.
+* Time. 
+</t>
   </si>
   <si>
     <t>* Successful timely delivery
 * Distinction
 * Growth from learning and feedback. 
-* Feeling well-prepared to speak.</t>
-  </si>
-  <si>
-    <t>* End of MSc AI
-* Ongoing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Make time to exercise daily. 
-* Make time for sleep.
-* Take breaks.
-</t>
-  </si>
-  <si>
-    <t>* Self
-* Other students
-* Student rep group</t>
-  </si>
-  <si>
-    <t>*Through end of courses.</t>
-  </si>
-  <si>
-    <t>* Self
+* Feeling well-prepared to speak in industry.</t>
+  </si>
+  <si>
+    <r>
+      <t>Build community, share and grow.
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RMPP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Balance better and factor in health.
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RMPP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Individual incremental growth built on digging deep.
+(NA)</t>
+  </si>
+  <si>
+    <t>Community building and knowledge sharing for growth and support.
+(NA)</t>
+  </si>
+  <si>
+    <t>Find balance and make time for my health.
+(NA)</t>
+  </si>
+  <si>
+    <t>* Create student WhatsApp per class
+* Student rep
+* Collaborative discussions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Self
 * Yoga
 * Walking
-* Sleeping</t>
-  </si>
-  <si>
-    <t>* Health improves.
+* Sleeping
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Health improves.
 * Back pain manageable.
-* Not always exhausted.</t>
-  </si>
-  <si>
-    <t>* Creation of WhatsApp group for students for each course. 
-* Answered questions where possible.
-* Student rep feedback to UoEO Computing leadership.
-* NA (2024) WhatsApp group with 11 members has provided a real sense of community, camaraderie, peer growth and mutual support.</t>
-  </si>
-  <si>
-    <t>Find balance and make time for my health.</t>
-  </si>
-  <si>
-    <t>* Review weekly
-* End of MSc AI</t>
-  </si>
-  <si>
-    <t>* Gradual physical recovery.
+* Not always exhausted.
+* See a friend once a month.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Gradual physical recovery.
 * Yoga 2-3 times a week
-* Studying to midnight not 3am.</t>
-  </si>
-  <si>
-    <t>* UAI (2023) Ethical banking applications using ML all related to media applications. (Distinction)
-* UAI (2023) WEKA Kaggle dataset analysis with ML focused on churn, also prevalent in media.  (Distinction)
-* IA (2023-2024) Web scraping, AROS  (Distinction)
-* KRR (2023-2024) LoCLOnt Library ontology using age-appropriate genres and new releases. (Distinction)
-* NA (2024) Statistical Analysis Presentation - considering how might apply to media survey data. (TBC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Increase camaraderie, sense of community, peer growth and emotional support. 
+* Studying to midnight. 
 </t>
   </si>
 </sst>
@@ -738,7 +1210,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,6 +1226,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,7 +1300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -895,6 +1373,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,10 +1394,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1213,13 +1693,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB88B037-81C4-49B0-88AC-DA098C7D7431}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1303,9 +1783,9 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="81.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
-        <v>126</v>
+    <row r="8" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>31</v>
@@ -1320,7 +1800,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -1350,7 +1830,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -1370,27 +1850,27 @@
         <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="55.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -1414,13 +1894,13 @@
         <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -1450,7 +1930,7 @@
         <v>45341</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1470,7 +1950,7 @@
         <v>45341</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1613,27 +2093,27 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="41.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="52.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>19</v>
       </c>
@@ -1641,19 +2121,19 @@
         <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>20</v>
       </c>
@@ -1661,19 +2141,19 @@
         <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>21</v>
       </c>
@@ -1681,41 +2161,41 @@
         <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="4" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -1723,49 +2203,49 @@
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
     </row>
-    <row r="34" spans="1:6" ht="55.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -1773,67 +2253,67 @@
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
     </row>
-    <row r="37" spans="1:6" ht="133.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="4" t="s">
-        <v>89</v>
+    <row r="37" spans="1:6" ht="172.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="27" t="s">
+        <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="F37" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" ht="288.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" ht="283.14999999999998" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="B39" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -1841,184 +2321,244 @@
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
     </row>
-    <row r="41" spans="1:6" ht="124.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" ht="149.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="D41" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="145.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="121.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="19" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A44" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A44" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="E44" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="19" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="114" x14ac:dyDescent="0.45">
       <c r="A46" s="19" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="125.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="148.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="19" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A48" s="19" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A49" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="148.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F48" s="3" t="s">
+    </row>
+    <row r="51" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A51" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A52" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="57" x14ac:dyDescent="0.45">
-      <c r="A49" s="19" t="s">
+      <c r="E52" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
